--- a/backend/fms_core/tests/test_services/templates/Library_capture_v3_14_0.xlsx
+++ b/backend/fms_core/tests/test_services/templates/Library_capture_v3_14_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckostiw/C3G/repos/freezeman/backend/fms_core/tests/test_services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A35815-CB34-8C44-99C1-76DAEF17E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F5E572-DCDD-A241-934F-C8A53D4F500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30640" yWindow="6520" windowWidth="34380" windowHeight="9540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30840" yWindow="-3400" windowWidth="35440" windowHeight="15200" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capture Batch" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>Library Capture Template</t>
   </si>
@@ -54,7 +54,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -64,7 +64,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -73,7 +73,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>) = Mandatory field</t>
     </r>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>MCC</t>
-  </si>
-  <si>
-    <t>Capture test</t>
   </si>
   <si>
     <t>Patrick Willett</t>
@@ -206,9 +203,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>Captured pool</t>
   </si>
   <si>
     <t>Technician Name</t>
@@ -330,6 +324,9 @@
   <si>
     <t>500</t>
   </si>
+  <si>
+    <t>Experiment Run Info Test</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -350,44 +347,51 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -395,7 +399,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -493,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -528,7 +531,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1122,34 +1124,34 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>26</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -8499,8 +8501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8576,7 +8578,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="8"/>
@@ -8596,37 +8598,37 @@
         <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>11</v>
@@ -8637,35 +8639,35 @@
         <v>20</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="E5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="G5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>57</v>
+      <c r="H5" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -17125,7 +17127,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -17134,13 +17136,13 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -17148,130 +17150,130 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="G5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>68</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="G7" t="s">
         <v>71</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>72</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
         <v>74</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
